--- a/Week5-graphs.xlsx
+++ b/Week5-graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsamland/Documents/GitHub/ME495-Quadrotor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361849DD-ABFF-8C47-8FD6-7F892E951578}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71135B60-848C-6545-964F-5C815436ED3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="480" windowWidth="28040" windowHeight="16620" xr2:uid="{6FFC6BFF-0375-D247-B575-FA60BCB2FEB5}"/>
+    <workbookView xWindow="380" yWindow="480" windowWidth="28040" windowHeight="16620" activeTab="1" xr2:uid="{6FFC6BFF-0375-D247-B575-FA60BCB2FEB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Pitch" sheetId="1" r:id="rId1"/>
@@ -137,6 +137,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PID Pitch Control</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -9983,6 +10038,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -10042,6 +10128,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Roll Control</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22875,8 +22991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFC411F-5E79-A540-8151-F91FE38F3AAC}">
   <dimension ref="A1:B1607"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35745,8 +35861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12FE9DC-7E07-0543-816D-8A0B7BC51904}">
   <dimension ref="A1:B1838"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
